--- a/TimeManagement/GROUP4_Project 3 Group 4 Database Design TODOLIST.xlsx
+++ b/TimeManagement/GROUP4_Project 3 Group 4 Database Design TODOLIST.xlsx
@@ -25,7 +25,7 @@
     <t>To be completed by:</t>
   </si>
   <si>
-    <t>JUSTIN(PROJ MANAGER)12/14/2025</t>
+    <t>FAHIM(PROJ MANAGER)12/14/2025</t>
   </si>
   <si>
     <t>Names: Esfar, Justin, Sayantan, Fahim, Yousuf</t>
